--- a/regionseng/4/culture/culture.xlsx
+++ b/regionseng/4/culture/culture.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\მუზ. რუკის რეგ. 2023 ---გიგას\Adjara\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA1C05-9141-4908-B3BB-8402AEBF9617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="975" windowWidth="21975" windowHeight="9810"/>
+    <workbookView xWindow="17655" yWindow="1320" windowWidth="10080" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Data on Theaters, Museums and Museum Reserves in Adjara AR region</t>
+  </si>
   <si>
     <t>Total number of theatres, unit</t>
   </si>
@@ -25,7 +39,7 @@
     <t>Annual attendance, thsd. Persons</t>
   </si>
   <si>
-    <t>Data on Theaters, Museums and Museum Reserves in Adjara AR region</t>
+    <t>Total number of museums, unit</t>
   </si>
   <si>
     <t>Number of excursions, unit</t>
@@ -34,18 +48,19 @@
     <t>Number of exhibitions, unit</t>
   </si>
   <si>
-    <t>Total number of museums, unit</t>
+    <t>Annual attendance per 1 000 population</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode=".\ #;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,12 +71,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -92,6 +101,12 @@
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,79 +164,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -244,44 +262,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -309,14 +327,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -344,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,476 +407,473 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="8" customWidth="1"/>
-    <col min="2" max="17" width="8.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="27" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+    <row r="1" spans="1:20" ht="30.75" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="4"/>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>2005</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>2006</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>2007</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>2008</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>2009</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>2010</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>2011</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>2012</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>2013</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>2014</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>2015</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="8">
         <v>2016</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="8">
         <v>2017</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="8">
         <v>2018</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="8">
         <v>2019</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="8">
         <v>2020</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>2021</v>
       </c>
+      <c r="S2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="T2" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13">
-        <v>3</v>
-      </c>
-      <c r="H3" s="13">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>3</v>
-      </c>
-      <c r="J3" s="13">
-        <v>3</v>
-      </c>
-      <c r="K3" s="13">
-        <v>3</v>
-      </c>
-      <c r="L3" s="13">
-        <v>3</v>
-      </c>
-      <c r="M3" s="13">
-        <v>3</v>
-      </c>
-      <c r="N3" s="14">
-        <v>3</v>
-      </c>
-      <c r="O3" s="14">
-        <v>3</v>
-      </c>
-      <c r="P3" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="14">
-        <v>3</v>
-      </c>
-      <c r="R3" s="25">
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3</v>
+      </c>
+      <c r="J3" s="10">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10">
+        <v>3</v>
+      </c>
+      <c r="M3" s="10">
+        <v>3</v>
+      </c>
+      <c r="N3" s="11">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11">
+        <v>3</v>
+      </c>
+      <c r="P3" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>3</v>
+      </c>
+      <c r="R3" s="11">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5">
+        <v>3</v>
+      </c>
+      <c r="T3" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
         <v>152</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>204</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>221</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>184</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>232</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="10">
         <v>204</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>199</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>240</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="10">
         <v>170</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <v>135</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="10">
         <v>94</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="10">
         <v>180</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <v>278</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="11">
         <v>376</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <v>383</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="11">
         <v>40</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="11">
         <v>143</v>
       </c>
+      <c r="S4" s="5">
+        <v>206</v>
+      </c>
+      <c r="T4" s="27">
+        <v>330</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
         <v>13</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>19</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>19</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>19</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>22</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>21</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="10">
         <v>19</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>25</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="12">
         <v>21</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="10">
         <v>18</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <v>21</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="11">
         <v>30</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="11">
         <v>38</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="13">
         <v>59.25</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="13">
         <v>4</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="13">
         <v>23.148</v>
       </c>
+      <c r="S5" s="21">
+        <v>37.25</v>
+      </c>
+      <c r="T5" s="28">
+        <v>44.43</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>14</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>11</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>8</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>13</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>14</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="10">
         <v>16</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>16</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>16</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="10">
         <v>16</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="10">
         <v>16</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="11">
         <v>21</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="11">
         <v>20</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <v>20</v>
       </c>
       <c r="Q6" s="1">
@@ -833,200 +882,286 @@
       <c r="R6" s="1">
         <v>21</v>
       </c>
+      <c r="S6" s="1">
+        <v>21</v>
+      </c>
+      <c r="T6" s="1">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15">
         <v>24.6</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>34.700000000000003</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>27.7</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>37.9</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <v>36.6</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <v>44.5</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>57.9</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <v>111.9</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <v>111.1</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="15">
         <v>128.69999999999999</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <v>109</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="15">
         <v>141.9</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="16">
         <v>162.262</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="16">
         <v>208.39599999999999</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="16">
         <v>207.077</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="16">
         <v>21.768999999999998</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="16">
         <v>124.7</v>
       </c>
+      <c r="S7" s="16">
+        <v>244.995</v>
+      </c>
+      <c r="T7" s="24">
+        <v>254.78899999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20">
+    <row r="8" spans="1:20">
+      <c r="A8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23">
+        <v>311.58819137463109</v>
+      </c>
+      <c r="C8" s="23">
+        <v>103.33947314737193</v>
+      </c>
+      <c r="D8" s="23">
+        <v>82.89615834662564</v>
+      </c>
+      <c r="E8" s="23">
+        <v>113.88204044164596</v>
+      </c>
+      <c r="F8" s="23">
+        <v>110.08694161331509</v>
+      </c>
+      <c r="G8" s="23">
+        <v>133.89458734891727</v>
+      </c>
+      <c r="H8" s="23">
+        <v>174.46957820756666</v>
+      </c>
+      <c r="I8" s="23">
+        <v>336.74231248607606</v>
+      </c>
+      <c r="J8" s="23">
+        <v>333.75343807410769</v>
+      </c>
+      <c r="K8" s="23">
+        <v>384.32221417748354</v>
+      </c>
+      <c r="L8" s="23">
+        <v>322.10870030953805</v>
+      </c>
+      <c r="M8" s="23">
+        <v>415.51339792126214</v>
+      </c>
+      <c r="N8" s="23">
+        <v>470.75855426160933</v>
+      </c>
+      <c r="O8" s="23">
+        <v>599.37731439870572</v>
+      </c>
+      <c r="P8" s="23">
+        <v>590.87199680420019</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>61.599016407822894</v>
+      </c>
+      <c r="R8" s="23">
+        <v>350.95661819876204</v>
+      </c>
+      <c r="S8" s="23">
+        <v>683.51018939198434</v>
+      </c>
+      <c r="T8" s="31">
+        <v>703.23188747804022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="17">
         <v>509</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C9" s="17">
         <v>1113</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D9" s="17">
         <v>830</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E9" s="17">
         <v>2044</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="17">
         <v>971</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G9" s="17">
         <v>1487</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H9" s="17">
         <v>1390</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I9" s="17">
         <v>1905</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J9" s="17">
         <v>1758</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K9" s="17">
         <v>2087</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L9" s="17">
         <v>1569</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M9" s="17">
         <v>2011.0000000000002</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N9" s="18">
         <v>2425</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O9" s="18">
         <v>2353</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P9" s="17">
         <v>2634</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q9" s="17">
         <v>365</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R9" s="17">
         <v>1207</v>
       </c>
+      <c r="S9" s="17">
+        <v>2568</v>
+      </c>
+      <c r="T9" s="25">
+        <v>3307</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="10" spans="1:20">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3">
         <v>58</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>52</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>88</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>102</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>96</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>81</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>90</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>94</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>120</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>143</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>137</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>158</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N10" s="19">
         <v>174</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O10" s="19">
         <v>176</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P10" s="9">
         <v>177</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q10" s="9">
         <v>57</v>
       </c>
-      <c r="R9" s="12">
+      <c r="R10" s="9">
         <v>72</v>
       </c>
+      <c r="S10" s="9">
+        <v>165</v>
+      </c>
+      <c r="T10" s="29">
+        <v>201</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="R10" s="27"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>